--- a/sofaplayer/La_Liga/Getafe_stats.xlsx
+++ b/sofaplayer/La_Liga/Getafe_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL25"/>
+  <dimension ref="A1:DL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1391,40 +1391,40 @@
         <v>973536</v>
       </c>
       <c r="E3" t="n">
-        <v>6.375</v>
+        <v>6.52</v>
       </c>
       <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>435</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8485</v>
+      </c>
+      <c r="L3" t="n">
+        <v>435</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>346</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3713</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.14951669</v>
+        <v>0.16445599</v>
       </c>
       <c r="AB3" t="n">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,49 +1469,49 @@
         <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
-        <v>68.181818181818</v>
+        <v>63.025210084034</v>
       </c>
       <c r="AG3" t="n">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="AH3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
         <v>20</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>33.333333333333</v>
       </c>
       <c r="AO3" t="n">
         <v>4</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
         <v>2</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
@@ -1529,34 +1529,34 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>30.769230769231</v>
+        <v>35.294117647059</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>38.59649122807</v>
+        <v>37.974683544304</v>
       </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
-        <v>42.857142857143</v>
+        <v>36.95652173913</v>
       </c>
       <c r="BE3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BF3" t="n">
-        <v>34.48275862069</v>
+        <v>39.393939393939</v>
       </c>
       <c r="BG3" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="BH3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI3" t="n">
         <v>5</v>
@@ -1577,22 +1577,22 @@
         <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>25.5</v>
+        <v>32.6</v>
       </c>
       <c r="BR3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,37 +1610,37 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CA3" t="n">
         <v>2</v>
       </c>
       <c r="CB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
         <v>3</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>2</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1667,16 +1667,16 @@
         <v>4</v>
       </c>
       <c r="CS3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CT3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CU3" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="CV3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DA3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DB3" t="n">
         <v>66.666666666667</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="DG3" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>974713</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0666666666667</v>
+        <v>7.175</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0.4489</v>
       </c>
       <c r="L4" t="n">
-        <v>121</v>
+        <v>161.5</v>
       </c>
       <c r="M4" t="n">
         <v>7</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.123466</v>
+        <v>0.12497939</v>
       </c>
       <c r="AB4" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -1825,22 +1825,22 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>65.71428571428601</v>
+        <v>61.363636363636</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>2</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>1</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>40.625</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BC4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
-        <v>37.5</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BE4" t="n">
         <v>7</v>
@@ -1909,13 +1909,13 @@
         <v>43.75</v>
       </c>
       <c r="BG4" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BH4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ4" t="n">
         <v>8</v>
@@ -1933,22 +1933,22 @@
         <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>21.2</v>
+        <v>28.7</v>
       </c>
       <c r="BR4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
       </c>
       <c r="BT4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>5</v>
       </c>
       <c r="CT4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CV4" t="n">
         <v>9</v>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="DB4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="DG4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1515554</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5105263157895</v>
+        <v>6.52</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
         <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>1.8793</v>
       </c>
       <c r="L5" t="n">
-        <v>449.33333333333</v>
+        <v>452.33333333333</v>
       </c>
       <c r="M5" t="n">
         <v>22</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.28607008</v>
+        <v>0.28843584</v>
       </c>
       <c r="AB5" t="n">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,22 +2181,22 @@
         <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AF5" t="n">
-        <v>68.94977168949799</v>
+        <v>69.058295964126</v>
       </c>
       <c r="AG5" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AH5" t="n">
         <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="n">
         <v>2</v>
@@ -2211,7 +2211,7 @@
         <v>15.384615384615</v>
       </c>
       <c r="AO5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
@@ -2223,10 +2223,10 @@
         <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -2244,34 +2244,34 @@
         <v>13</v>
       </c>
       <c r="AZ5" t="n">
-        <v>40.625</v>
+        <v>39.393939393939</v>
       </c>
       <c r="BA5" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BB5" t="n">
-        <v>34.854771784232</v>
+        <v>35.365853658537</v>
       </c>
       <c r="BC5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BD5" t="n">
-        <v>40.425531914894</v>
+        <v>40.689655172414</v>
       </c>
       <c r="BE5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BF5" t="n">
-        <v>27</v>
+        <v>27.722772277228</v>
       </c>
       <c r="BG5" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BH5" t="n">
         <v>31</v>
       </c>
       <c r="BI5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BJ5" t="n">
         <v>12</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>123.7</v>
+        <v>130.4</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
       </c>
       <c r="BT5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>3</v>
       </c>
       <c r="CS5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CT5" t="n">
         <v>39</v>
       </c>
       <c r="CU5" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CV5" t="n">
         <v>73</v>
@@ -2421,7 +2421,7 @@
         <v>66</v>
       </c>
       <c r="DG5" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>811629</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0545454545455</v>
+        <v>7.0782608695652</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="n">
-        <v>1935</v>
+        <v>2025</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5034999999999999</v>
+        <v>0.7211</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -3237,10 +3237,10 @@
         <v>8</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.0551852</v>
+        <v>4.0932161</v>
       </c>
       <c r="AB8" t="n">
-        <v>1290</v>
+        <v>1353</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -3249,55 +3249,55 @@
         <v>53</v>
       </c>
       <c r="AE8" t="n">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="AF8" t="n">
-        <v>78.935698447894</v>
+        <v>78.82352941176499</v>
       </c>
       <c r="AG8" t="n">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="AH8" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AI8" t="n">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="AJ8" t="n">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL8" t="n">
-        <v>49.107142857143</v>
+        <v>49.137931034483</v>
       </c>
       <c r="AM8" t="n">
         <v>44</v>
       </c>
       <c r="AN8" t="n">
-        <v>34.108527131783</v>
+        <v>32.116788321168</v>
       </c>
       <c r="AO8" t="n">
         <v>23</v>
       </c>
       <c r="AP8" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AS8" t="n">
         <v>20</v>
       </c>
       <c r="AT8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ8" t="n">
-        <v>50</v>
+        <v>53.571428571429</v>
       </c>
       <c r="BA8" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="BB8" t="n">
-        <v>56</v>
+        <v>57.746478873239</v>
       </c>
       <c r="BC8" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="BD8" t="n">
-        <v>54.48275862069</v>
+        <v>57.324840764331</v>
       </c>
       <c r="BE8" t="n">
         <v>33</v>
       </c>
       <c r="BF8" t="n">
-        <v>60</v>
+        <v>58.928571428571</v>
       </c>
       <c r="BG8" t="n">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="BH8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3357,28 +3357,28 @@
         <v>6</v>
       </c>
       <c r="BO8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>155.2</v>
+        <v>162.8</v>
       </c>
       <c r="BR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS8" t="n">
         <v>8</v>
       </c>
       <c r="BT8" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="BU8" t="n">
         <v>1</v>
       </c>
       <c r="BV8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>3</v>
       </c>
       <c r="BZ8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CA8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB8" t="n">
         <v>18</v>
       </c>
       <c r="CC8" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="CD8" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK8" t="n">
         <v>3</v>
@@ -3447,34 +3447,34 @@
         <v>52</v>
       </c>
       <c r="CS8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CT8" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CU8" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="CV8" t="n">
+        <v>23</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>116</v>
+      </c>
+      <c r="DA8" t="n">
         <v>22</v>
       </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>112</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>18</v>
-      </c>
       <c r="DB8" t="n">
-        <v>60</v>
+        <v>57.894736842105</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="DG8" t="n">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ8" t="n">
         <v>2145295</v>
@@ -3527,43 +3527,43 @@
         <v>385888</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8173913043478</v>
+        <v>6.8291666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>2040</v>
+        <v>2130</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7315</v>
+        <v>4.5199</v>
       </c>
       <c r="L9" t="n">
-        <v>510</v>
+        <v>426</v>
       </c>
       <c r="M9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>10.25641025641</v>
+        <v>12.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
         <v>100</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
         <v>2</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.4541108</v>
+        <v>0.45696289</v>
       </c>
       <c r="AB9" t="n">
-        <v>890</v>
+        <v>929</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
@@ -3605,22 +3605,22 @@
         <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="AF9" t="n">
-        <v>75.04835589942</v>
+        <v>75.746268656716</v>
       </c>
       <c r="AG9" t="n">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="AH9" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AI9" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AJ9" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -3635,19 +3635,19 @@
         <v>28.571428571429</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
@@ -3665,37 +3665,37 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>46.875</v>
+        <v>50</v>
       </c>
       <c r="BA9" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BB9" t="n">
-        <v>51.379310344828</v>
+        <v>51.485148514851</v>
       </c>
       <c r="BC9" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.19512195122</v>
+        <v>53.271028037383</v>
       </c>
       <c r="BE9" t="n">
         <v>42</v>
       </c>
       <c r="BF9" t="n">
-        <v>49.411764705882</v>
+        <v>47.191011235955</v>
       </c>
       <c r="BG9" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="BH9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BI9" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
@@ -3713,22 +3713,22 @@
         <v>6</v>
       </c>
       <c r="BO9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>156.8</v>
+        <v>163.9</v>
       </c>
       <c r="BR9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BT9" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>18</v>
       </c>
       <c r="BW9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>1</v>
       </c>
       <c r="BZ9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CA9" t="n">
         <v>12</v>
       </c>
       <c r="CB9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CC9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CD9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CK9" t="n">
         <v>3</v>
@@ -3803,16 +3803,16 @@
         <v>13</v>
       </c>
       <c r="CS9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CT9" t="n">
         <v>7</v>
       </c>
       <c r="CU9" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="CV9" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>48</v>
       </c>
       <c r="DA9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="DB9" t="n">
         <v>66.666666666667</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="DG9" t="n">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -4239,16 +4239,16 @@
         <v>353154</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5454545454545</v>
+        <v>6.5416666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7766038</v>
+        <v>0.77767137</v>
       </c>
       <c r="AB11" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4317,22 +4317,22 @@
         <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="n">
-        <v>67.088607594937</v>
+        <v>66.875</v>
       </c>
       <c r="AG11" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AH11" t="n">
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -4386,13 +4386,13 @@
         <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>42.105263157895</v>
+        <v>41.025641025641</v>
       </c>
       <c r="BC11" t="n">
         <v>13</v>
       </c>
       <c r="BD11" t="n">
-        <v>44.827586206897</v>
+        <v>43.333333333333</v>
       </c>
       <c r="BE11" t="n">
         <v>3</v>
@@ -4401,10 +4401,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG11" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BH11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI11" t="n">
         <v>2</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>72</v>
+        <v>78.5</v>
       </c>
       <c r="BR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="CU11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CV11" t="n">
         <v>6</v>
@@ -4557,7 +4557,7 @@
         <v>37</v>
       </c>
       <c r="DG11" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>1101232</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8</v>
+        <v>6.8416666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.35899614</v>
+        <v>0.36159424</v>
       </c>
       <c r="AB13" t="n">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="AC13" t="n">
         <v>2</v>
@@ -5029,28 +5029,28 @@
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AF13" t="n">
-        <v>71.314741035857</v>
+        <v>71.851851851852</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AH13" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>46.753246753247</v>
+        <v>48.809523809524</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -5059,22 +5059,22 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -5095,31 +5095,31 @@
         <v>40</v>
       </c>
       <c r="BA13" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="BB13" t="n">
-        <v>67.44186046511599</v>
+        <v>69.387755102041</v>
       </c>
       <c r="BC13" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="BD13" t="n">
-        <v>66.666666666667</v>
+        <v>68.421052631579</v>
       </c>
       <c r="BE13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BF13" t="n">
-        <v>70</v>
+        <v>72.727272727273</v>
       </c>
       <c r="BG13" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="BH13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI13" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="BJ13" t="n">
         <v>1</v>
@@ -5137,22 +5137,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>74.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="BR13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="CC13" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK13" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="CU13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CV13" t="n">
         <v>6</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="DA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DB13" t="n">
-        <v>54.166666666667</v>
+        <v>55.555555555556</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="DG13" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5307,16 +5307,16 @@
         <v>307702</v>
       </c>
       <c r="E14" t="n">
-        <v>6.7227272727273</v>
+        <v>6.7260869565217</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" t="n">
-        <v>1674</v>
+        <v>1754</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.13281181</v>
+        <v>0.13947985</v>
       </c>
       <c r="AB14" t="n">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -5385,28 +5385,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="AF14" t="n">
-        <v>79.81981981982</v>
+        <v>80.069324090121</v>
       </c>
       <c r="AG14" t="n">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="AH14" t="n">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="AI14" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AJ14" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AK14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>42.045454545455</v>
+        <v>41.304347826087</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -5415,16 +5415,16 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AS14" t="n">
         <v>6</v>
@@ -5445,22 +5445,22 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>100</v>
       </c>
       <c r="BA14" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="BB14" t="n">
-        <v>62.406015037594</v>
+        <v>62.773722627737</v>
       </c>
       <c r="BC14" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BD14" t="n">
-        <v>61.643835616438</v>
+        <v>62.337662337662</v>
       </c>
       <c r="BE14" t="n">
         <v>38</v>
@@ -5469,10 +5469,10 @@
         <v>63.333333333333</v>
       </c>
       <c r="BG14" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="BH14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI14" t="n">
         <v>17</v>
@@ -5493,22 +5493,22 @@
         <v>5</v>
       </c>
       <c r="BO14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>147.9</v>
+        <v>154.7</v>
       </c>
       <c r="BR14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS14" t="n">
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="CC14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CD14" t="n">
         <v>16</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5583,13 +5583,13 @@
         <v>1</v>
       </c>
       <c r="CS14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CT14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CV14" t="n">
         <v>22</v>
@@ -5604,13 +5604,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="DA14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB14" t="n">
-        <v>70.833333333333</v>
+        <v>69.230769230769</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="DG14" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="DH14" t="n">
         <v>1</v>
@@ -6019,16 +6019,16 @@
         <v>1392092</v>
       </c>
       <c r="E16" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6084,9 +6084,11 @@
       <c r="Z16" t="n">
         <v>0</v>
       </c>
-      <c r="AA16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>0.00204021</v>
+      </c>
       <c r="AB16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6095,22 +6097,22 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -6179,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
@@ -6209,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>6.3</v>
+        <v>13</v>
       </c>
       <c r="BR16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
@@ -6335,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6376,13 +6378,13 @@
         <v>6.3166666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6442,7 +6444,7 @@
         <v>0.09298035</v>
       </c>
       <c r="AB17" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6454,10 +6456,10 @@
         <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>64.356435643564</v>
+        <v>63.725490196078</v>
       </c>
       <c r="AG17" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AH17" t="n">
         <v>36</v>
@@ -6496,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
         <v>1</v>
@@ -6520,13 +6522,13 @@
         <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>54.285714285714</v>
+        <v>51.351351351351</v>
       </c>
       <c r="BC17" t="n">
         <v>9</v>
       </c>
       <c r="BD17" t="n">
-        <v>42.857142857143</v>
+        <v>39.130434782609</v>
       </c>
       <c r="BE17" t="n">
         <v>10</v>
@@ -6535,10 +6537,10 @@
         <v>71.428571428571</v>
       </c>
       <c r="BG17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BH17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI17" t="n">
         <v>3</v>
@@ -6574,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
@@ -6598,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="CB17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC17" t="n">
         <v>10</v>
@@ -6655,7 +6657,7 @@
         <v>6</v>
       </c>
       <c r="CU17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CV17" t="n">
         <v>4</v>
@@ -6691,7 +6693,7 @@
         <v>39</v>
       </c>
       <c r="DG17" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6729,16 +6731,16 @@
         <v>1108450</v>
       </c>
       <c r="E18" t="n">
-        <v>6.8333333333333</v>
+        <v>6.825</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6795,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01117001</v>
+        <v>0.02915581</v>
       </c>
       <c r="AB18" t="n">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6807,28 +6809,28 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="n">
-        <v>63.461538461538</v>
+        <v>62.204724409449</v>
       </c>
       <c r="AG18" t="n">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="AH18" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
-        <v>24.242424242424</v>
+        <v>30.232558139535</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6837,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
         <v>9</v>
@@ -6846,13 +6848,13 @@
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6867,43 +6869,43 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>60</v>
+        <v>59.375</v>
       </c>
       <c r="BC18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD18" t="n">
-        <v>64.28571428571399</v>
+        <v>64.705882352941</v>
       </c>
       <c r="BE18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF18" t="n">
-        <v>54.545454545455</v>
+        <v>53.333333333333</v>
       </c>
       <c r="BG18" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="BH18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6915,22 +6917,22 @@
         <v>2</v>
       </c>
       <c r="BO18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>20.5</v>
+        <v>27.3</v>
       </c>
       <c r="BR18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6957,10 +6959,10 @@
         <v>1</v>
       </c>
       <c r="CC18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="CD18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -7005,16 +7007,16 @@
         <v>0</v>
       </c>
       <c r="CS18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT18" t="n">
         <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CV18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="DA18" t="n">
         <v>3</v>
@@ -7044,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="DG18" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="DH18" t="n">
         <v>1</v>
@@ -7085,16 +7087,16 @@
         <v>576276</v>
       </c>
       <c r="E19" t="n">
-        <v>6.555</v>
+        <v>6.5571428571429</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" t="n">
-        <v>1715</v>
+        <v>1805</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7151,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.09671962000000001</v>
+        <v>0.10218277</v>
       </c>
       <c r="AB19" t="n">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7163,28 +7165,28 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="AF19" t="n">
-        <v>77.142857142857</v>
+        <v>77.457627118644</v>
       </c>
       <c r="AG19" t="n">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="AH19" t="n">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="AI19" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL19" t="n">
-        <v>42.201834862385</v>
+        <v>42.105263157895</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7193,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -7202,13 +7204,13 @@
         <v>1</v>
       </c>
       <c r="AR19" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AS19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AU19" t="n">
         <v>1</v>
@@ -7229,25 +7231,25 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BB19" t="n">
-        <v>60.283687943262</v>
+        <v>60.416666666667</v>
       </c>
       <c r="BC19" t="n">
         <v>39</v>
       </c>
       <c r="BD19" t="n">
-        <v>59.090909090909</v>
+        <v>58.208955223881</v>
       </c>
       <c r="BE19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BF19" t="n">
-        <v>61.333333333333</v>
+        <v>62.337662337662</v>
       </c>
       <c r="BG19" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BH19" t="n">
         <v>22</v>
@@ -7256,7 +7258,7 @@
         <v>21</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19" t="n">
         <v>8</v>
@@ -7271,22 +7273,22 @@
         <v>5</v>
       </c>
       <c r="BO19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>131.1</v>
+        <v>137.7</v>
       </c>
       <c r="BR19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7313,10 +7315,10 @@
         <v>2</v>
       </c>
       <c r="CC19" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="CD19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CE19" t="n">
         <v>1</v>
@@ -7334,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK19" t="n">
         <v>3</v>
@@ -7367,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CV19" t="n">
         <v>29</v>
@@ -7382,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="DA19" t="n">
         <v>9</v>
@@ -7400,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="DG19" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7615,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="BK20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL20" t="n">
         <v>0</v>
@@ -7797,16 +7799,16 @@
         <v>949707</v>
       </c>
       <c r="E21" t="n">
-        <v>6.7454545454545</v>
+        <v>6.7695652173913</v>
       </c>
       <c r="F21" t="n">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n">
         <v>22</v>
       </c>
-      <c r="G21" t="n">
-        <v>21</v>
-      </c>
       <c r="H21" t="n">
-        <v>1866</v>
+        <v>1956</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7818,7 +7820,7 @@
         <v>0.8828</v>
       </c>
       <c r="L21" t="n">
-        <v>1866</v>
+        <v>1956</v>
       </c>
       <c r="M21" t="n">
         <v>18</v>
@@ -7860,55 +7862,55 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9576603299999999</v>
+        <v>1.17795533</v>
       </c>
       <c r="AB21" t="n">
-        <v>1168</v>
+        <v>1226</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AF21" t="n">
-        <v>65.95365418894799</v>
+        <v>65.565217391304</v>
       </c>
       <c r="AG21" t="n">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="AH21" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AI21" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ21" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AL21" t="n">
-        <v>31.25</v>
+        <v>31.756756756757</v>
       </c>
       <c r="AM21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN21" t="n">
-        <v>21.428571428571</v>
+        <v>22.80701754386</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="AQ21" t="n">
         <v>4</v>
@@ -7920,7 +7922,7 @@
         <v>25</v>
       </c>
       <c r="AT21" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AU21" t="n">
         <v>12</v>
@@ -7938,34 +7940,34 @@
         <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>52.777777777778</v>
+        <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="BB21" t="n">
-        <v>54.901960784314</v>
+        <v>55.072463768116</v>
       </c>
       <c r="BC21" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="BD21" t="n">
-        <v>57.943925233645</v>
+        <v>57.758620689655</v>
       </c>
       <c r="BE21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BF21" t="n">
-        <v>39.024390243902</v>
+        <v>40.909090909091</v>
       </c>
       <c r="BG21" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="BH21" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="BI21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ21" t="n">
         <v>1</v>
@@ -7983,22 +7985,22 @@
         <v>5</v>
       </c>
       <c r="BO21" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="BR21" t="n">
         <v>23</v>
       </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>22</v>
-      </c>
       <c r="BS21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT21" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8025,10 +8027,10 @@
         <v>13</v>
       </c>
       <c r="CC21" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="CD21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="CE21" t="n">
         <v>1</v>
@@ -8046,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK21" t="n">
         <v>2</v>
@@ -8070,58 +8072,58 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
+        <v>9</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>38</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>57</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>124</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>26</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>148</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>42</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>60.869565217391</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>198</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>377</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>7</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>36</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>56</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>115</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>25</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>144</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>39</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>63.934426229508</v>
-      </c>
-      <c r="DC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>194</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>367</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>6</v>
       </c>
       <c r="DJ21" t="n">
         <v>2145318</v>
@@ -8153,16 +8155,16 @@
         <v>53739</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6777777777778</v>
+        <v>6.6526315789474</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>1318</v>
+        <v>1404</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8219,10 +8221,10 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.80957569</v>
+        <v>0.81588904</v>
       </c>
       <c r="AB22" t="n">
-        <v>752</v>
+        <v>815</v>
       </c>
       <c r="AC22" t="n">
         <v>1</v>
@@ -8231,52 +8233,52 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="AF22" t="n">
-        <v>78.863636363636</v>
+        <v>79.449152542373</v>
       </c>
       <c r="AG22" t="n">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="AH22" t="n">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AI22" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AJ22" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>44.444444444444</v>
+        <v>48.780487804878</v>
       </c>
       <c r="AM22" t="n">
         <v>5</v>
       </c>
       <c r="AN22" t="n">
-        <v>20.833333333333</v>
+        <v>17.241379310345</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP22" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AQ22" t="n">
         <v>4</v>
       </c>
       <c r="AR22" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AS22" t="n">
         <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8285,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -8294,28 +8296,28 @@
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>45.454545454545</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BA22" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BB22" t="n">
-        <v>54.464285714286</v>
+        <v>54.237288135593</v>
       </c>
       <c r="BC22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BD22" t="n">
-        <v>54.761904761905</v>
+        <v>53.932584269663</v>
       </c>
       <c r="BE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF22" t="n">
-        <v>53.571428571429</v>
+        <v>55.172413793103</v>
       </c>
       <c r="BG22" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="BH22" t="n">
         <v>15</v>
@@ -8339,22 +8341,22 @@
         <v>2</v>
       </c>
       <c r="BO22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>120.2</v>
+        <v>126.4</v>
       </c>
       <c r="BR22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS22" t="n">
         <v>1</v>
       </c>
       <c r="BT22" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8378,13 +8380,13 @@
         <v>3</v>
       </c>
       <c r="CB22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CD22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8402,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK22" t="n">
         <v>3</v>
@@ -8429,13 +8431,13 @@
         <v>12</v>
       </c>
       <c r="CS22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CT22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="CU22" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CV22" t="n">
         <v>13</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="DA22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="DB22" t="n">
-        <v>48.387096774194</v>
+        <v>51.515151515152</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="DG22" t="n">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8858,26 +8860,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jorge Montes</t>
+          <t>David Soria</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1895197</v>
+        <v>604258</v>
       </c>
       <c r="E24" t="n">
-        <v>6.4</v>
+        <v>7.0208333333333</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>2160</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -8929,208 +8931,208 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00485181</v>
+        <v>0.07252662</v>
       </c>
       <c r="AB24" t="n">
+        <v>863</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>318</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>45.755395683453</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>695</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>132</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>186</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>56</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>233</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>38.259441707718</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>182</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>390</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>377</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>49</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>35</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>47</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>25</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM24" t="n">
         <v>20</v>
       </c>
-      <c r="AC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>88.888888888889</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>0</v>
-      </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ24" t="n">
         <v>0</v>
@@ -9139,16 +9141,16 @@
         <v>1</v>
       </c>
       <c r="CS24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9160,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="DA24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB24" t="n">
-        <v>66.666666666667</v>
+        <v>0</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9175,384 +9177,30 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="DF24" t="n">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="DG24" t="n">
-        <v>5</v>
+        <v>538</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2581212</v>
+        <v>2145304</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>David Soria</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>604258</v>
-      </c>
-      <c r="E25" t="n">
-        <v>7.0347826086957</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23</v>
-      </c>
-      <c r="G25" t="n">
-        <v>23</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2070</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.07169200000000001</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>831</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>306</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>45.739910313901</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>669</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>125</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>181</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>225</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>38.330494037479</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>177</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>376</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>74</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>27</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>161.8</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>23</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>363</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>49</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>35</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>46</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>25</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>24</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>7</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>20</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>20</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>7</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>587</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>14</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>149</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>520</v>
-      </c>
-      <c r="DH25" t="n">
-        <v>156</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>2145304</v>
-      </c>
-      <c r="DK25" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL25" t="n">
-        <v>0.0251</v>
+      <c r="DL24" t="n">
+        <v>0.2302</v>
       </c>
     </row>
   </sheetData>
